--- a/Selenium-Scripts/src/appConfigFileMaryKay.xlsx
+++ b/Selenium-Scripts/src/appConfigFileMaryKay.xlsx
@@ -5,25 +5,24 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Projects\ECom\EcomFramework\Framework\Selenium-Scripts\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Projects\Automation Framework\Automation_Framework\Selenium-Scripts\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="2670" tabRatio="701" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="2670" tabRatio="701" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SearchPage" sheetId="36" r:id="rId1"/>
-    <sheet name="Login" sheetId="40" r:id="rId2"/>
-    <sheet name="PDP" sheetId="37" r:id="rId3"/>
-    <sheet name="Checkout" sheetId="38" r:id="rId4"/>
-    <sheet name="ShipperForm" sheetId="39" r:id="rId5"/>
+    <sheet name="PDP" sheetId="37" r:id="rId2"/>
+    <sheet name="Checkout" sheetId="38" r:id="rId3"/>
+    <sheet name="ShipperForm" sheetId="39" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>Key</t>
   </si>
@@ -37,9 +36,6 @@
     <t>searchBar</t>
   </si>
   <si>
-    <t>searchButton</t>
-  </si>
-  <si>
     <t>searchResult</t>
   </si>
   <si>
@@ -97,15 +93,9 @@
     <t>(//*[@id='GuestLocatorZipCode'])[1]</t>
   </si>
   <si>
-    <t>zipCode</t>
-  </si>
-  <si>
     <t>(//*[@class='formula'])[1]</t>
   </si>
   <si>
-    <t>guestChekOut</t>
-  </si>
-  <si>
     <t>(//*[contains(text(),'Checkout')])[3]</t>
   </si>
   <si>
@@ -172,10 +162,22 @@
     <t>address</t>
   </si>
   <si>
-    <t>userName</t>
-  </si>
-  <si>
-    <t>password</t>
+    <t>search</t>
+  </si>
+  <si>
+    <t>searchedProduct</t>
+  </si>
+  <si>
+    <t>guestChek-Out</t>
+  </si>
+  <si>
+    <t>guestCheckOutHeading</t>
+  </si>
+  <si>
+    <t>(//h3)[2]</t>
+  </si>
+  <si>
+    <t>checkOutbtn</t>
   </si>
 </sst>
 </file>
@@ -578,15 +580,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -603,23 +605,31 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -629,47 +639,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,39 +664,47 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -731,17 +712,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -755,50 +736,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -806,12 +803,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,82 +827,82 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -914,15 +911,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_dlc_DocId xmlns="f7c95c21-70cf-4f55-a2aa-42a8ccf5f8e5">HRRKFX3D3EU6-345154152-145</_dlc_DocId>
@@ -934,7 +922,66 @@
 </p:properties>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100209EC8D1B460E04EAE9C1B1C8AC8DB28" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b351c033c9c9815478ca7eb3b1834e90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f7c95c21-70cf-4f55-a2aa-42a8ccf5f8e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf3754e477bad867b7d6f1de6fcb6fff" ns2:_="">
     <xsd:import namespace="f7c95c21-70cf-4f55-a2aa-42a8ccf5f8e5"/>
@@ -1079,65 +1126,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B3E90C9-3DD0-4640-A9E4-2EED702FC869}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{162431BF-6DFE-4D42-A598-9B628181FC89}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -1153,7 +1142,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B3E90C9-3DD0-4640-A9E4-2EED702FC869}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B372F3-4FE9-46FF-BB1C-9BA2799EB127}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A00C9E4A-1077-497A-BADB-01962963AFE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1169,12 +1174,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B372F3-4FE9-46FF-BB1C-9BA2799EB127}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Selenium-Scripts/src/appConfigFileMaryKay.xlsx
+++ b/Selenium-Scripts/src/appConfigFileMaryKay.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="2670" tabRatio="701" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="2670" tabRatio="701"/>
   </bookViews>
   <sheets>
     <sheet name="SearchPage" sheetId="36" r:id="rId1"/>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -911,77 +911,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="f7c95c21-70cf-4f55-a2aa-42a8ccf5f8e5">HRRKFX3D3EU6-345154152-145</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="f7c95c21-70cf-4f55-a2aa-42a8ccf5f8e5">
-      <Url>http://enterprisetfs.systemsltd.com/sites/SL-DBU/RUC/_layouts/15/DocIdRedir.aspx?ID=HRRKFX3D3EU6-345154152-145</Url>
-      <Description>HRRKFX3D3EU6-345154152-145</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100209EC8D1B460E04EAE9C1B1C8AC8DB28" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b351c033c9c9815478ca7eb3b1834e90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f7c95c21-70cf-4f55-a2aa-42a8ccf5f8e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf3754e477bad867b7d6f1de6fcb6fff" ns2:_="">
     <xsd:import namespace="f7c95c21-70cf-4f55-a2aa-42a8ccf5f8e5"/>
@@ -1126,39 +1055,78 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="f7c95c21-70cf-4f55-a2aa-42a8ccf5f8e5">HRRKFX3D3EU6-345154152-145</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="f7c95c21-70cf-4f55-a2aa-42a8ccf5f8e5">
+      <Url>http://enterprisetfs.systemsltd.com/sites/SL-DBU/RUC/_layouts/15/DocIdRedir.aspx?ID=HRRKFX3D3EU6-345154152-145</Url>
+      <Description>HRRKFX3D3EU6-345154152-145</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{162431BF-6DFE-4D42-A598-9B628181FC89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="f7c95c21-70cf-4f55-a2aa-42a8ccf5f8e5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B3E90C9-3DD0-4640-A9E4-2EED702FC869}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B372F3-4FE9-46FF-BB1C-9BA2799EB127}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A00C9E4A-1077-497A-BADB-01962963AFE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1174,4 +1142,36 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B372F3-4FE9-46FF-BB1C-9BA2799EB127}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B3E90C9-3DD0-4640-A9E4-2EED702FC869}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{162431BF-6DFE-4D42-A598-9B628181FC89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f7c95c21-70cf-4f55-a2aa-42a8ccf5f8e5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>